--- a/data/xlsx/02232019.xlsx
+++ b/data/xlsx/02232019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0C4F1A2-0D5E-0A48-A065-E8DDBB39B576}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85C11F4-78CE-C74B-96EE-44627589D567}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -314,7 +314,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -328,11 +328,6 @@
     <font>
       <sz val="8"/>
       <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -356,11 +351,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -700,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -713,11 +707,9 @@
     <col min="3" max="3" width="12"/>
     <col min="4" max="5" width="19"/>
     <col min="8" max="8" width="10"/>
-    <col min="9" max="10" width="21"/>
-    <col min="11" max="11" width="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
@@ -742,10 +734,9 @@
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="4">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3">
         <v>43519</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -769,11 +760,9 @@
       <c r="H2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="4">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3">
         <v>43519</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -797,10 +786,9 @@
       <c r="H3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="4">
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3">
         <v>43519</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -824,10 +812,9 @@
       <c r="H4" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="4">
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3">
         <v>43519</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -851,10 +838,9 @@
       <c r="H5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="4">
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3">
         <v>43519</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -878,10 +864,9 @@
       <c r="H6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="4">
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3">
         <v>43519</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -905,10 +890,9 @@
       <c r="H7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="4">
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3">
         <v>43519</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -932,10 +916,9 @@
       <c r="H8" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="4">
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3">
         <v>43519</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -959,10 +942,9 @@
       <c r="H9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="4">
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3">
         <v>43519</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -986,10 +968,9 @@
       <c r="H10" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="4">
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3">
         <v>43519</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1013,10 +994,9 @@
       <c r="H11" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="4">
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3">
         <v>43519</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1040,10 +1020,9 @@
       <c r="H12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="4">
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3">
         <v>43519</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1067,10 +1046,9 @@
       <c r="H13" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="4">
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3">
         <v>43519</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1094,11 +1072,9 @@
       <c r="H14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="4">
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3">
         <v>43519</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1122,11 +1098,9 @@
       <c r="H15" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="4">
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3">
         <v>43519</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1150,10 +1124,9 @@
       <c r="H16" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="4">
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3">
         <v>43519</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1177,10 +1150,9 @@
       <c r="H17" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="4">
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3">
         <v>43519</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1204,10 +1176,9 @@
       <c r="H18" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="4">
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="3">
         <v>43519</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1231,10 +1202,9 @@
       <c r="H19" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="4">
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3">
         <v>43519</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1258,10 +1228,9 @@
       <c r="H20" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="4">
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="3">
         <v>43519</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1285,10 +1254,9 @@
       <c r="H21" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="4">
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="3">
         <v>43519</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1312,10 +1280,9 @@
       <c r="H22" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="4">
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="3">
         <v>43519</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1339,10 +1306,6 @@
       <c r="H23" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/xlsx/02232019.xlsx
+++ b/data/xlsx/02232019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85C11F4-78CE-C74B-96EE-44627589D567}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73179F2A-E072-E94D-881B-91D6459ABB14}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -314,6 +314,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -355,7 +358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:M1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
